--- a/biology/Virologie/Coronavirus_canin_de_la_pneumonie_humaine_de_2018/Coronavirus_canin_de_la_pneumonie_humaine_de_2018.xlsx
+++ b/biology/Virologie/Coronavirus_canin_de_la_pneumonie_humaine_de_2018/Coronavirus_canin_de_la_pneumonie_humaine_de_2018.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Coronavirus
 Le Coronavirus canin de la pneumonie humaine de 2018  ou CCoV-HuPn-2018 est un virus découvert pour la première fois dans une étude de surveillance au Sarawak, en Malaisie, chez des patients hospitalisés atteints de pneumonie. Il s'agit peut-être du huitième coronavirus connu pour provoquer une maladie chez l'humain, mais aucune transmission interhumaine n'a été observée. Il s'agit d'un alphacoronavirus recombinant canin-félin (génotype II) apparenté à la souche CCoV-II d'Alphacoronavirus 1. 
@@ -512,10 +524,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Des échantillons nasopharayngés de 300 patients hospitalisés pour une pneumonie à Sarawak, en Malaisie, entre 2017 et 2018 ont été analysés. Huit cas (tous des enfants) ont révélé la présence de Coronavirus canin. Chez l'un d'eux, une souche présumée pathogène a été isolée et séquencée. Il s'agit d'un virus recombiné avec le FCoV félin et qui présente une adaptation au récepteur AP-N (type CCoV-II). Il est recombiné avec une partie du FCoV dans le domaine S2 et présente une délétion spécifique de 12 acides aminés dans la protéine N[1],[2].
-Des essais ultérieurs ont montré que les cellules pulmonaires humaines n’étaient pas réceptives in vitro à cette souche[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Des échantillons nasopharayngés de 300 patients hospitalisés pour une pneumonie à Sarawak, en Malaisie, entre 2017 et 2018 ont été analysés. Huit cas (tous des enfants) ont révélé la présence de Coronavirus canin. Chez l'un d'eux, une souche présumée pathogène a été isolée et séquencée. Il s'agit d'un virus recombiné avec le FCoV félin et qui présente une adaptation au récepteur AP-N (type CCoV-II). Il est recombiné avec une partie du FCoV dans le domaine S2 et présente une délétion spécifique de 12 acides aminés dans la protéine N,.
+Des essais ultérieurs ont montré que les cellules pulmonaires humaines n’étaient pas réceptives in vitro à cette souche.
 </t>
         </is>
       </c>
